--- a/Retail.xlsx
+++ b/Retail.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>PICKLIST / PALLET CONFIRMATION LIST</t>
   </si>
   <si>
     <t>Processed By:  Order Type  PO/ SO#</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>SKU</t>
@@ -172,13 +175,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFc6c6c6"/>
       </left>
@@ -299,11 +295,18 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,67 +317,70 @@
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -682,20 +688,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="26" width="67.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="26" width="18.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -708,39 +713,38 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="31.5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="27.75">
       <c r="A3" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
-      <c r="H3" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="23.25">
       <c r="A4" s="12"/>
@@ -750,7 +754,6 @@
       <c r="E4" s="13"/>
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="23.25">
       <c r="A5" s="16"/>
@@ -760,7 +763,6 @@
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="23.25">
       <c r="A6" s="12"/>
@@ -770,7 +772,6 @@
       <c r="E6" s="13"/>
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="23.25">
       <c r="A7" s="16"/>
@@ -780,7 +781,6 @@
       <c r="E7" s="17"/>
       <c r="F7" s="18"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="23.25">
       <c r="A8" s="12"/>
@@ -790,7 +790,6 @@
       <c r="E8" s="13"/>
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="23.25">
       <c r="A9" s="16"/>
@@ -800,7 +799,6 @@
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="23.25">
       <c r="A10" s="12"/>
@@ -810,7 +808,6 @@
       <c r="E10" s="13"/>
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="23.25">
       <c r="A11" s="16"/>
@@ -820,7 +817,6 @@
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="23.25">
       <c r="A12" s="12"/>
@@ -830,7 +826,6 @@
       <c r="E12" s="13"/>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="23.25">
       <c r="A13" s="16"/>
@@ -840,7 +835,6 @@
       <c r="E13" s="17"/>
       <c r="F13" s="18"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="23.25">
       <c r="A14" s="12"/>
@@ -850,7 +844,6 @@
       <c r="E14" s="13"/>
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="23.25">
       <c r="A15" s="16"/>
@@ -860,7 +853,6 @@
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="23.25">
       <c r="A16" s="12"/>
@@ -870,7 +862,6 @@
       <c r="E16" s="13"/>
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="23.25">
       <c r="A17" s="16"/>
@@ -880,7 +871,6 @@
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="23.25">
       <c r="A18" s="12"/>
@@ -890,7 +880,6 @@
       <c r="E18" s="13"/>
       <c r="F18" s="14"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="23.25">
       <c r="A19" s="16"/>
@@ -900,7 +889,6 @@
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="12"/>
@@ -910,7 +898,6 @@
       <c r="E20" s="13"/>
       <c r="F20" s="14"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="16"/>
@@ -920,7 +907,6 @@
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="12"/>
@@ -930,7 +916,6 @@
       <c r="E22" s="13"/>
       <c r="F22" s="14"/>
       <c r="G22" s="15"/>
-      <c r="H22" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="16"/>
@@ -940,7 +925,6 @@
       <c r="E23" s="17"/>
       <c r="F23" s="18"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="12"/>
@@ -950,7 +934,6 @@
       <c r="E24" s="19"/>
       <c r="F24" s="20"/>
       <c r="G24" s="21"/>
-      <c r="H24" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="16"/>
@@ -960,7 +943,6 @@
       <c r="E25" s="17"/>
       <c r="F25" s="18"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="12"/>
@@ -970,7 +952,6 @@
       <c r="E26" s="19"/>
       <c r="F26" s="20"/>
       <c r="G26" s="21"/>
-      <c r="H26" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="16"/>
@@ -980,7 +961,6 @@
       <c r="E27" s="17"/>
       <c r="F27" s="18"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="12"/>
@@ -990,7 +970,6 @@
       <c r="E28" s="19"/>
       <c r="F28" s="20"/>
       <c r="G28" s="21"/>
-      <c r="H28" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="16"/>
@@ -1000,71 +979,64 @@
       <c r="E29" s="17"/>
       <c r="F29" s="18"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="4"/>
-      <c r="B31" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="22" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="23"/>
-      <c r="H31" s="4"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="4"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="4"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="57">
